--- a/spreadsheets/venture_industries_guide_fittings_pressure_loss_coef.xlsx
+++ b/spreadsheets/venture_industries_guide_fittings_pressure_loss_coef.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Documents\GitHub\ductwork\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BF2C78-69C8-4B1E-93AF-7FD2A4F1B4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F6146C-DC71-4EF1-90E3-6B4A81C3981E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="639" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Source" sheetId="23" r:id="rId1"/>
+    <sheet name="S" sheetId="23" r:id="rId1"/>
     <sheet name="1" sheetId="1" r:id="rId2"/>
     <sheet name="2" sheetId="8" r:id="rId3"/>
     <sheet name="3" sheetId="3" r:id="rId4"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="87">
   <si>
     <t>R/D</t>
   </si>
@@ -267,6 +267,57 @@
   </si>
   <si>
     <t>TR5</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>ACCA</t>
+  </si>
+  <si>
+    <t>10C</t>
+  </si>
+  <si>
+    <t>9M</t>
+  </si>
+  <si>
+    <t>Return Trunk Junction Fitting</t>
+  </si>
+  <si>
+    <t>Supply Trunk Junction Fitting</t>
+  </si>
+  <si>
+    <t>10D</t>
+  </si>
+  <si>
+    <t>9N</t>
+  </si>
+  <si>
+    <t>10E</t>
+  </si>
+  <si>
+    <t>9J</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>12F</t>
+  </si>
+  <si>
+    <t>Transitions</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>9I</t>
+  </si>
+  <si>
+    <t>9A</t>
   </si>
 </sst>
 </file>
@@ -4450,6 +4501,7 @@
       <c:valAx>
         <c:axId val="1584420080"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -26965,7 +27017,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6064186" cy="5915299"/>
+          <a:ext cx="5999352" cy="5915299"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="6039693" cy="5915299"/>
         </a:xfrm>
@@ -28024,7 +28076,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>553293</xdr:colOff>
+      <xdr:colOff>315168</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>181585</xdr:rowOff>
     </xdr:to>
@@ -29071,10 +29123,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3E0AA0-D2B0-4C71-85DC-DCAC8B809994}">
-  <dimension ref="K12:T27"/>
+  <dimension ref="B12:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29185,7 +29237,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K17" s="1">
         <v>0.2</v>
       </c>
@@ -29217,7 +29269,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K18" s="1">
         <v>0.3</v>
       </c>
@@ -29249,7 +29301,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="19" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K19" s="1">
         <v>0.4</v>
       </c>
@@ -29281,7 +29333,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="20" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K20" s="1">
         <v>0.5</v>
       </c>
@@ -29313,7 +29365,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="21" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K21" s="1">
         <v>0.6</v>
       </c>
@@ -29345,7 +29397,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="22" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K22" s="1">
         <v>0.7</v>
       </c>
@@ -29377,7 +29429,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="23" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K23" s="1">
         <v>0.8</v>
       </c>
@@ -29409,7 +29461,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="O24" s="7" t="s">
@@ -29419,7 +29471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="O25" s="7" t="s">
@@ -29429,7 +29481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K26" s="3" t="s">
         <v>9</v>
       </c>
@@ -29455,7 +29507,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K27" s="3" t="s">
         <v>5</v>
       </c>
@@ -29479,6 +29531,28 @@
       </c>
       <c r="R27" s="6">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -29493,10 +29567,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7626FC0F-CFE5-4A90-BD8C-BD5A48D8EC6B}">
-  <dimension ref="K11:U25"/>
+  <dimension ref="B11:U27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29651,7 +29725,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="17" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K17" s="1">
         <v>0.3</v>
       </c>
@@ -29686,7 +29760,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="18" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K18" s="1">
         <v>0.4</v>
       </c>
@@ -29721,7 +29795,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="19" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K19" s="1">
         <v>0.6</v>
       </c>
@@ -29756,7 +29830,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="20" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K20" s="1">
         <v>0.8</v>
       </c>
@@ -29791,7 +29865,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K21" s="17">
         <v>1</v>
       </c>
@@ -29826,7 +29900,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -29842,7 +29916,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -29858,7 +29932,7 @@
       <c r="T23" s="12"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K24" s="3" t="s">
         <v>9</v>
       </c>
@@ -29890,7 +29964,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K25" s="3" t="s">
         <v>5</v>
       </c>
@@ -29920,6 +29994,25 @@
       </c>
       <c r="T25" s="6">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -29934,10 +30027,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB8A725-E9C2-4E57-9E75-9FE185C7CC9A}">
-  <dimension ref="K10:T25"/>
+  <dimension ref="B10:T27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="B26" sqref="B26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30124,7 +30217,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="17" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K17" s="1">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -30157,7 +30250,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="18" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K18" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -30190,7 +30283,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="19" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K19" s="1">
         <f t="shared" si="1"/>
         <v>0.6</v>
@@ -30223,7 +30316,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K20" s="1">
         <f t="shared" si="1"/>
         <v>0.7</v>
@@ -30256,7 +30349,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K21" s="1">
         <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
@@ -30289,7 +30382,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="22" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="O22" s="7" t="s">
         <v>25</v>
       </c>
@@ -30297,7 +30390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="O23" s="7" t="s">
         <v>37</v>
       </c>
@@ -30305,7 +30398,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K24" s="3" t="s">
         <v>9</v>
       </c>
@@ -30331,7 +30424,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K25" s="3" t="s">
         <v>5</v>
       </c>
@@ -30355,6 +30448,28 @@
       </c>
       <c r="R25" s="16">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -30369,10 +30484,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE5AF3-5042-4299-BD5F-756A2404D01F}">
-  <dimension ref="K10:V39"/>
+  <dimension ref="B10:V39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31055,7 +31170,16 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="L33" s="28">
         <f>ABS(L25)</f>
         <v>860</v>
@@ -31097,7 +31221,16 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
       <c r="L34" s="28">
         <f t="shared" ref="L34:U39" si="3">ABS(L26)</f>
         <v>410</v>
@@ -31139,7 +31272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L35" s="28">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -31181,7 +31314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L36" s="28">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -31223,7 +31356,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L37" s="28">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -31265,7 +31398,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L38" s="28">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -31307,7 +31440,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="39" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L39" s="28">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -31363,10 +31496,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5580159-7628-471D-A107-CEC7E15EC12F}">
-  <dimension ref="B17:R38"/>
+  <dimension ref="B17:R39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31831,6 +31964,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I19:I20"/>
@@ -31843,10 +31987,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578DB5A6-A1D4-4B47-A680-DB85F52AEC17}">
-  <dimension ref="B12:S25"/>
+  <dimension ref="B12:S26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32124,6 +32268,17 @@
         <v>67</v>
       </c>
     </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I14:I15"/>
@@ -32136,10 +32291,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D7E749-2AA5-4662-8E68-CDC84F7CCC3B}">
-  <dimension ref="B14:T34"/>
+  <dimension ref="B14:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32615,6 +32770,17 @@
       </c>
       <c r="D34" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -32632,7 +32798,7 @@
   <dimension ref="B12:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32921,7 +33087,7 @@
   <dimension ref="K12:Y30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33575,7 +33741,7 @@
   <dimension ref="K1:AE75"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+      <selection activeCell="K24" sqref="K24:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35607,7 +35773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="K10:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -35902,10 +36068,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3937FD28-3E56-4F7D-B4D8-720EB65653E3}">
-  <dimension ref="B3:O24"/>
+  <dimension ref="B3:O26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36013,7 +36179,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>53</v>
@@ -36031,6 +36197,28 @@
       </c>
       <c r="D24" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -36041,13 +36229,18 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3A17FA-F489-4B2C-AED0-26BFF2A83836}">
-  <dimension ref="B13:X25"/>
+  <dimension ref="B13:X26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="13" spans="11:24" x14ac:dyDescent="0.25">
       <c r="O13" s="7" t="s">
@@ -36387,6 +36580,17 @@
         <v>56</v>
       </c>
     </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="K16:K17"/>
@@ -36399,10 +36603,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62122AE-3A64-4D0F-8B4E-F0F905540FFF}">
-  <dimension ref="B10:V21"/>
+  <dimension ref="B10:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36627,6 +36831,17 @@
       </c>
       <c r="D21" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -37910,7 +38125,7 @@
   <dimension ref="M13:V25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38169,8 +38384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640C0547-DE6B-4D0F-BCEC-48888FBC7E18}">
   <dimension ref="B8:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38239,7 +38454,7 @@
   <dimension ref="A15:L16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38332,10 +38547,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF474CB-2535-497E-A8BF-6EEAB8F4824A}">
-  <dimension ref="L12:V24"/>
+  <dimension ref="B12:V27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38441,7 +38656,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="17" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L17" s="4">
         <v>0.1</v>
       </c>
@@ -38476,7 +38691,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="18" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L18" s="4">
         <v>0.25</v>
       </c>
@@ -38511,7 +38726,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="19" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L19" s="4">
         <v>0.5</v>
       </c>
@@ -38546,7 +38761,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L20" s="4">
         <v>1</v>
       </c>
@@ -38581,7 +38796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L21" s="4">
         <v>2</v>
       </c>
@@ -38616,7 +38831,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="22" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L22" s="4">
         <v>4</v>
       </c>
@@ -38651,7 +38866,7 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="23" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L23" s="4">
         <v>6</v>
       </c>
@@ -38686,7 +38901,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="24" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L24" s="4">
         <v>10</v>
       </c>
@@ -38719,6 +38934,28 @@
       </c>
       <c r="V24" s="5">
         <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -38733,10 +38970,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C72937F-63E3-4481-9F52-B818BC64F84C}">
-  <dimension ref="B11:T28"/>
+  <dimension ref="B11:T29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39159,6 +39396,17 @@
         <v>62</v>
       </c>
     </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="K13:T13"/>

--- a/spreadsheets/venture_industries_guide_fittings_pressure_loss_coef.xlsx
+++ b/spreadsheets/venture_industries_guide_fittings_pressure_loss_coef.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Documents\GitHub\ductwork\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F6146C-DC71-4EF1-90E3-6B4A81C3981E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8211A10-CF0B-4FE0-83E6-6F1D2772D668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="0" windowWidth="21600" windowHeight="11235" tabRatio="862" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="23" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,45 +499,29 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -546,7 +530,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,20 +554,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,6 +1150,650 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'10'!$L$15:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2301-45E5-8E18-EC9322692D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'10'!$L$16:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2301-45E5-8E18-EC9322692D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'10'!$L$17:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-4.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2301-45E5-8E18-EC9322692D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'10'!$L$18:$U$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-7.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2301-45E5-8E18-EC9322692D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'10'!$L$19:$U$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2301-45E5-8E18-EC9322692D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'10'!$L$20:$U$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-32.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2301-45E5-8E18-EC9322692D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'10'!$L$21:$U$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2301-45E5-8E18-EC9322692D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="49560208"/>
+        <c:axId val="49554384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49560208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49554384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49554384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49560208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -1844,7 +2472,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2478,7 +3106,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3092,7 +3720,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3681,7 +4309,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4357,7 +4985,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4600,7 +5228,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4906,7 +5534,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5410,7 +6038,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5982,7 +6610,935 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$L$13:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$L$14:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-428C-4226-8BEF-7475D35844BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$L$13:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$L$15:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-428C-4226-8BEF-7475D35844BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$L$13:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$L$16:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-428C-4226-8BEF-7475D35844BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$L$13:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$L$17:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-428C-4226-8BEF-7475D35844BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$L$13:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$L$18:$U$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-428C-4226-8BEF-7475D35844BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$L$13:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$L$19:$U$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-428C-4226-8BEF-7475D35844BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="426725599"/>
+        <c:axId val="426724767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="426725599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426724767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="426724767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426725599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7032,1202 +8588,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'2'!$M$16:$M$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CB73-4592-9199-A0462EA5E4E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'2'!$N$16:$N$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.38</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CB73-4592-9199-A0462EA5E4E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'2'!$O$16:$O$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CB73-4592-9199-A0462EA5E4E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'2'!$P$16:$P$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CB73-4592-9199-A0462EA5E4E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'2'!$Q$16:$Q$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CB73-4592-9199-A0462EA5E4E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'2'!$R$16:$R$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-CB73-4592-9199-A0462EA5E4E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'2'!$S$16:$S$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CB73-4592-9199-A0462EA5E4E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'2'!$T$16:$T$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-CB73-4592-9199-A0462EA5E4E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'2'!$U$16:$U$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-CB73-4592-9199-A0462EA5E4E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'2'!$V$16:$V$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-CB73-4592-9199-A0462EA5E4E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'2'!$W$16:$W$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-CB73-4592-9199-A0462EA5E4E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="101599840"/>
-        <c:axId val="101601504"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="101599840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="101601504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="101601504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="101599840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9336,7 +9697,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9871,7 +10232,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10275,6 +10636,1201 @@
           </c:marker>
           <c:val>
             <c:numRef>
+              <c:f>'2'!$M$16:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB73-4592-9199-A0462EA5E4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$N$16:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB73-4592-9199-A0462EA5E4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$O$16:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CB73-4592-9199-A0462EA5E4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$P$16:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CB73-4592-9199-A0462EA5E4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$Q$16:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CB73-4592-9199-A0462EA5E4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$R$16:$R$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CB73-4592-9199-A0462EA5E4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$S$16:$S$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CB73-4592-9199-A0462EA5E4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$T$16:$T$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CB73-4592-9199-A0462EA5E4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$U$16:$U$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CB73-4592-9199-A0462EA5E4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$V$16:$V$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CB73-4592-9199-A0462EA5E4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$W$16:$W$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-CB73-4592-9199-A0462EA5E4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="101599840"/>
+        <c:axId val="101601504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="101599840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101601504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101601504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101599840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
               <c:f>'3'!$O$19:$Y$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
@@ -10806,7 +12362,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11280,7 +12836,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11528,7 +13084,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12298,7 +13854,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13043,7 +14599,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13711,650 +15267,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="49568528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'10'!$L$15:$U$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.03</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2301-45E5-8E18-EC9322692D23}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'10'!$L$16:$U$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-1.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.04</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2301-45E5-8E18-EC9322692D23}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'10'!$L$17:$U$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-4.59</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.08</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2301-45E5-8E18-EC9322692D23}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'10'!$L$18:$U$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-7.36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2301-45E5-8E18-EC9322692D23}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'10'!$L$19:$U$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.76</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2301-45E5-8E18-EC9322692D23}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'10'!$L$20:$U$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-32.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2301-45E5-8E18-EC9322692D23}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'10'!$L$21:$U$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2301-45E5-8E18-EC9322692D23}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="49560208"/>
-        <c:axId val="49554384"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="49560208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="49554384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="49554384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="49560208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15003,6 +15915,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -20960,6 +21912,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21475,7 +22943,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21991,7 +23459,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22507,7 +23975,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -27938,13 +29406,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
+      <xdr:rowOff>14655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>498230</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:rowOff>43163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -27967,8 +29435,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14654"/>
-          <a:ext cx="6044712" cy="3692769"/>
+          <a:off x="0" y="14655"/>
+          <a:ext cx="5971442" cy="3648008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27979,10 +29447,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>612913</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
@@ -28008,6 +29476,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD433650-27F8-2464-9A49-493F2F200005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -29160,23 +30664,23 @@
       </c>
     </row>
     <row r="14" spans="11:20" x14ac:dyDescent="0.25">
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
     </row>
     <row r="15" spans="11:20" x14ac:dyDescent="0.25">
-      <c r="K15" s="35"/>
+      <c r="K15" s="29"/>
       <c r="L15" s="1">
         <v>0.1</v>
       </c>
@@ -29606,24 +31110,24 @@
       </c>
     </row>
     <row r="13" spans="11:21" x14ac:dyDescent="0.25">
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
     </row>
     <row r="14" spans="11:21" x14ac:dyDescent="0.25">
-      <c r="K14" s="35"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="1">
         <v>0.1</v>
       </c>
@@ -29651,7 +31155,7 @@
       <c r="T14" s="1">
         <v>0.9</v>
       </c>
-      <c r="U14" s="17">
+      <c r="U14" s="14">
         <v>1</v>
       </c>
     </row>
@@ -29715,7 +31219,7 @@
       <c r="R16" s="5">
         <v>1.06</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="9">
         <v>1.06</v>
       </c>
       <c r="T16" s="5">
@@ -29866,7 +31370,7 @@
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="K21" s="17">
+      <c r="K21" s="14">
         <v>1</v>
       </c>
       <c r="L21" s="5">
@@ -29914,7 +31418,6 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
-      <c r="U22" s="13"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L23" s="11"/>
@@ -29930,7 +31433,6 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="13"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K24" s="3" t="s">
@@ -29954,13 +31456,13 @@
       <c r="Q24" s="1">
         <v>0.6</v>
       </c>
-      <c r="R24" s="17">
+      <c r="R24" s="14">
         <v>0.7</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S24" s="14">
         <v>0.8</v>
       </c>
-      <c r="T24" s="18">
+      <c r="T24" s="15">
         <v>0.9</v>
       </c>
     </row>
@@ -30066,23 +31568,23 @@
       </c>
     </row>
     <row r="12" spans="11:20" x14ac:dyDescent="0.25">
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
     </row>
     <row r="13" spans="11:20" x14ac:dyDescent="0.25">
-      <c r="K13" s="29"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="1">
         <v>0.1</v>
       </c>
@@ -30402,25 +31904,25 @@
       <c r="K24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="14">
         <v>0.1</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="15">
         <v>0.2</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="15">
         <v>0.3</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="15">
         <v>0.4</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24" s="15">
         <v>0.5</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="15">
         <v>0.6</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24" s="15">
         <v>0.8</v>
       </c>
     </row>
@@ -30428,25 +31930,25 @@
       <c r="K25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="9">
         <v>28</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="5">
         <v>5.5</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="5">
         <v>1.89</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="5">
         <v>0.81</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="5">
         <v>0.36</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q25" s="5">
         <v>0.17</v>
       </c>
-      <c r="R25" s="16">
+      <c r="R25" s="5">
         <v>0.03</v>
       </c>
     </row>
@@ -30523,25 +32025,25 @@
       </c>
     </row>
     <row r="12" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
     </row>
     <row r="13" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K13" s="29"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="1">
         <v>0.4</v>
       </c>
@@ -30866,24 +32368,24 @@
       </c>
     </row>
     <row r="23" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
     </row>
     <row r="24" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K24" s="29"/>
+      <c r="K24" s="23"/>
       <c r="L24" s="1">
         <v>0.1</v>
       </c>
@@ -30919,7 +32421,7 @@
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="U24" s="19">
+      <c r="U24" s="14">
         <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
@@ -31180,43 +32682,43 @@
       <c r="D33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33" s="22">
         <f>ABS(L25)</f>
         <v>860</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M33" s="22">
         <f t="shared" ref="M33:U33" si="2">ABS(M25)</f>
         <v>167.5</v>
       </c>
-      <c r="N33" s="28">
+      <c r="N33" s="22">
         <f t="shared" si="2"/>
         <v>55.56</v>
       </c>
-      <c r="O33" s="28">
+      <c r="O33" s="22">
         <f t="shared" si="2"/>
         <v>21.88</v>
       </c>
-      <c r="P33" s="28">
+      <c r="P33" s="22">
         <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="Q33" s="28">
+      <c r="Q33" s="22">
         <f t="shared" si="2"/>
         <v>3.61</v>
       </c>
-      <c r="R33" s="28">
+      <c r="R33" s="22">
         <f t="shared" si="2"/>
         <v>1.29</v>
       </c>
-      <c r="S33" s="28">
+      <c r="S33" s="22">
         <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="T33" s="28">
+      <c r="T33" s="22">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="U33" s="28">
+      <c r="U33" s="22">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
@@ -31231,253 +32733,253 @@
       <c r="D34" t="s">
         <v>74</v>
       </c>
-      <c r="L34" s="28">
+      <c r="L34" s="22">
         <f t="shared" ref="L34:U39" si="3">ABS(L26)</f>
         <v>410</v>
       </c>
-      <c r="M34" s="28">
+      <c r="M34" s="22">
         <f t="shared" si="3"/>
         <v>77.5</v>
       </c>
-      <c r="N34" s="28">
+      <c r="N34" s="22">
         <f t="shared" si="3"/>
         <v>24.44</v>
       </c>
-      <c r="O34" s="28">
+      <c r="O34" s="22">
         <f t="shared" si="3"/>
         <v>9.3800000000000008</v>
       </c>
-      <c r="P34" s="28">
+      <c r="P34" s="22">
         <f t="shared" si="3"/>
         <v>3.8</v>
       </c>
-      <c r="Q34" s="28">
+      <c r="Q34" s="22">
         <f t="shared" si="3"/>
         <v>1.39</v>
       </c>
-      <c r="R34" s="28">
+      <c r="R34" s="22">
         <f t="shared" si="3"/>
         <v>0.37</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="22">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="T34" s="28">
+      <c r="T34" s="22">
         <f t="shared" si="3"/>
         <v>0.09</v>
       </c>
-      <c r="U34" s="28">
+      <c r="U34" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="L35" s="28">
+      <c r="L35" s="22">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="M35" s="28">
+      <c r="M35" s="22">
         <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
-      <c r="N35" s="28">
+      <c r="N35" s="22">
         <f t="shared" si="3"/>
         <v>14.44</v>
       </c>
-      <c r="O35" s="28">
+      <c r="O35" s="22">
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="P35" s="28">
+      <c r="P35" s="22">
         <f t="shared" si="3"/>
         <v>2.04</v>
       </c>
-      <c r="Q35" s="28">
+      <c r="Q35" s="22">
         <f t="shared" si="3"/>
         <v>0.61</v>
       </c>
-      <c r="R35" s="28">
+      <c r="R35" s="22">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="S35" s="28">
+      <c r="S35" s="22">
         <f t="shared" si="3"/>
         <v>0.11</v>
       </c>
-      <c r="T35" s="28">
+      <c r="T35" s="22">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="U35" s="28">
+      <c r="U35" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="L36" s="28">
+      <c r="L36" s="22">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="M36" s="28">
+      <c r="M36" s="22">
         <f t="shared" si="3"/>
         <v>32.5</v>
       </c>
-      <c r="N36" s="28">
+      <c r="N36" s="22">
         <f t="shared" si="3"/>
         <v>9.7799999999999994</v>
       </c>
-      <c r="O36" s="28">
+      <c r="O36" s="22">
         <f t="shared" si="3"/>
         <v>3.44</v>
       </c>
-      <c r="P36" s="28">
+      <c r="P36" s="22">
         <f t="shared" si="3"/>
         <v>1.1200000000000001</v>
       </c>
-      <c r="Q36" s="28">
+      <c r="Q36" s="22">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="R36" s="28">
+      <c r="R36" s="22">
         <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
-      <c r="S36" s="28">
+      <c r="S36" s="22">
         <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
-      <c r="T36" s="28">
+      <c r="T36" s="22">
         <f t="shared" si="3"/>
         <v>0.11</v>
       </c>
-      <c r="U36" s="28">
+      <c r="U36" s="22">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="L37" s="28">
+      <c r="L37" s="22">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="M37" s="28">
+      <c r="M37" s="22">
         <f t="shared" si="3"/>
         <v>16.75</v>
       </c>
-      <c r="N37" s="28">
+      <c r="N37" s="22">
         <f t="shared" si="3"/>
         <v>4.67</v>
       </c>
-      <c r="O37" s="28">
+      <c r="O37" s="22">
         <f t="shared" si="3"/>
         <v>1.31</v>
       </c>
-      <c r="P37" s="28">
+      <c r="P37" s="22">
         <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
-      <c r="Q37" s="28">
+      <c r="Q37" s="22">
         <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="R37" s="28">
+      <c r="R37" s="22">
         <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
-      <c r="S37" s="28">
+      <c r="S37" s="22">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="T37" s="28">
+      <c r="T37" s="22">
         <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
-      <c r="U37" s="28">
+      <c r="U37" s="22">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="L38" s="28">
+      <c r="L38" s="22">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="M38" s="28">
+      <c r="M38" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="N38" s="28">
+      <c r="N38" s="22">
         <f t="shared" si="3"/>
         <v>2.11</v>
       </c>
-      <c r="O38" s="28">
+      <c r="O38" s="22">
         <f t="shared" si="3"/>
         <v>0.31</v>
       </c>
-      <c r="P38" s="28">
+      <c r="P38" s="22">
         <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
-      <c r="Q38" s="28">
+      <c r="Q38" s="22">
         <f t="shared" si="3"/>
         <v>0.33</v>
       </c>
-      <c r="R38" s="28">
+      <c r="R38" s="22">
         <f t="shared" si="3"/>
         <v>0.33</v>
       </c>
-      <c r="S38" s="28">
+      <c r="S38" s="22">
         <f t="shared" si="3"/>
         <v>0.23</v>
       </c>
-      <c r="T38" s="28">
+      <c r="T38" s="22">
         <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="U38" s="28">
+      <c r="U38" s="22">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="L39" s="28">
+      <c r="L39" s="22">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="M39" s="28">
+      <c r="M39" s="22">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="N39" s="28">
+      <c r="N39" s="22">
         <f t="shared" si="3"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="O39" s="28">
+      <c r="O39" s="22">
         <f t="shared" si="3"/>
         <v>0.31</v>
       </c>
-      <c r="P39" s="28">
+      <c r="P39" s="22">
         <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
-      <c r="Q39" s="28">
+      <c r="Q39" s="22">
         <f t="shared" si="3"/>
         <v>0.47</v>
       </c>
-      <c r="R39" s="28">
+      <c r="R39" s="22">
         <f t="shared" si="3"/>
         <v>0.37</v>
       </c>
-      <c r="S39" s="28">
+      <c r="S39" s="22">
         <f t="shared" si="3"/>
         <v>0.27</v>
       </c>
-      <c r="T39" s="28">
+      <c r="T39" s="22">
         <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
-      <c r="U39" s="28">
+      <c r="U39" s="22">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
@@ -31539,24 +33041,24 @@
       </c>
     </row>
     <row r="19" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
     </row>
     <row r="20" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I20" s="29"/>
-      <c r="J20" s="20">
+      <c r="I20" s="23"/>
+      <c r="J20" s="16">
         <v>0.1</v>
       </c>
       <c r="K20" s="1">
@@ -31709,7 +33211,7 @@
       </c>
     </row>
     <row r="25" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I25" s="21">
+      <c r="I25" s="15">
         <v>1</v>
       </c>
       <c r="J25" s="5">
@@ -32030,25 +33532,25 @@
       </c>
     </row>
     <row r="14" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
     </row>
     <row r="15" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I15" s="30"/>
-      <c r="J15" s="20">
+      <c r="I15" s="24"/>
+      <c r="J15" s="16">
         <v>0.1</v>
       </c>
       <c r="K15" s="1">
@@ -32331,24 +33833,24 @@
       </c>
     </row>
     <row r="16" spans="11:20" x14ac:dyDescent="0.25">
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
     </row>
     <row r="17" spans="11:20" x14ac:dyDescent="0.25">
-      <c r="K17" s="29"/>
-      <c r="L17" s="20">
+      <c r="K17" s="23"/>
+      <c r="L17" s="16">
         <v>0.1</v>
       </c>
       <c r="M17" s="1">
@@ -32481,13 +33983,13 @@
       <c r="M21" s="5">
         <v>2.0499999999999998</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="18">
         <v>1.75</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="19">
         <v>1.77</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="5">
         <v>1.77</v>
       </c>
       <c r="Q21" s="5">
@@ -32520,7 +34022,7 @@
       <c r="O22" s="5">
         <v>1.23</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P22" s="18">
         <v>1.26</v>
       </c>
       <c r="Q22" s="5">
@@ -32529,10 +34031,10 @@
       <c r="R22" s="5">
         <v>1.24</v>
       </c>
-      <c r="S22" s="24">
+      <c r="S22" s="18">
         <v>1.25</v>
       </c>
-      <c r="T22" s="24">
+      <c r="T22" s="18">
         <v>1.25</v>
       </c>
     </row>
@@ -32695,7 +34197,7 @@
       <c r="K29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="16">
         <v>0.1</v>
       </c>
       <c r="M29" s="1">
@@ -32721,7 +34223,7 @@
       <c r="R29" s="1">
         <v>0.8</v>
       </c>
-      <c r="T29" s="23"/>
+      <c r="T29" s="17"/>
     </row>
     <row r="30" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K30" s="3" t="s">
@@ -32748,7 +34250,6 @@
       <c r="R30" s="5">
         <v>0.03</v>
       </c>
-      <c r="T30" s="13"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
@@ -32834,25 +34335,25 @@
       </c>
     </row>
     <row r="14" spans="11:21" x14ac:dyDescent="0.25">
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
     </row>
     <row r="15" spans="11:21" x14ac:dyDescent="0.25">
-      <c r="K15" s="30"/>
-      <c r="L15" s="20">
+      <c r="K15" s="24"/>
+      <c r="L15" s="16">
         <v>0.1</v>
       </c>
       <c r="M15" s="1">
@@ -32982,7 +34483,7 @@
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="16">
         <v>0.1</v>
       </c>
       <c r="M20" s="1">
@@ -33109,27 +34610,27 @@
       </c>
     </row>
     <row r="14" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="33"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="27"/>
     </row>
     <row r="15" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K15" s="29"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="3">
         <v>0.1</v>
       </c>
@@ -33401,31 +34902,31 @@
       </c>
     </row>
     <row r="23" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
     </row>
     <row r="24" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K24" s="29"/>
-      <c r="L24" s="35"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="1">
         <v>0.1</v>
       </c>
@@ -33479,45 +34980,45 @@
       <c r="N25" s="8">
         <v>16</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="9">
         <v>5.56</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="9">
         <v>2.25</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25" s="9">
         <v>1</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="9">
         <v>0.44</v>
       </c>
-      <c r="S25" s="22">
+      <c r="S25" s="9">
         <v>0.06</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="9">
         <v>0</v>
       </c>
-      <c r="U25" s="22">
+      <c r="U25" s="9">
         <v>0.05</v>
       </c>
-      <c r="V25" s="22">
+      <c r="V25" s="9">
         <v>0.2</v>
       </c>
-      <c r="W25" s="22">
+      <c r="W25" s="9">
         <v>0.35</v>
       </c>
-      <c r="X25" s="22">
+      <c r="X25" s="9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Y25" s="22">
+      <c r="Y25" s="9">
         <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K26" s="29">
+      <c r="K26" s="23">
         <v>90</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M26" s="8">
@@ -33526,42 +35027,42 @@
       <c r="N26" s="8">
         <v>16</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O26" s="9">
         <v>5.56</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="9">
         <v>2.25</v>
       </c>
-      <c r="Q26" s="22">
+      <c r="Q26" s="9">
         <v>1</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="9">
         <v>0.44</v>
       </c>
-      <c r="S26" s="22">
+      <c r="S26" s="9">
         <v>0.06</v>
       </c>
-      <c r="T26" s="22">
+      <c r="T26" s="9">
         <v>0</v>
       </c>
-      <c r="U26" s="22">
+      <c r="U26" s="9">
         <v>0.05</v>
       </c>
-      <c r="V26" s="22">
+      <c r="V26" s="9">
         <v>0.2</v>
       </c>
-      <c r="W26" s="22">
+      <c r="W26" s="9">
         <v>0.35</v>
       </c>
-      <c r="X26" s="22">
+      <c r="X26" s="9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Y26" s="22">
+      <c r="Y26" s="9">
         <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K27" s="29"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="1">
         <v>0.5</v>
       </c>
@@ -33571,42 +35072,42 @@
       <c r="N27" s="8">
         <v>16</v>
       </c>
-      <c r="O27" s="22">
+      <c r="O27" s="9">
         <v>5.78</v>
       </c>
-      <c r="P27" s="22">
+      <c r="P27" s="9">
         <v>2.5</v>
       </c>
-      <c r="Q27" s="22">
+      <c r="Q27" s="9">
         <v>1.2</v>
       </c>
-      <c r="R27" s="22">
+      <c r="R27" s="9">
         <v>0.64</v>
       </c>
-      <c r="S27" s="22">
+      <c r="S27" s="9">
         <v>0.27</v>
       </c>
-      <c r="T27" s="22">
+      <c r="T27" s="9">
         <v>0.2</v>
       </c>
-      <c r="U27" s="22">
+      <c r="U27" s="9">
         <v>0.25</v>
       </c>
-      <c r="V27" s="22">
+      <c r="V27" s="9">
         <v>0.4</v>
       </c>
-      <c r="W27" s="22">
+      <c r="W27" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="X27" s="22">
+      <c r="X27" s="9">
         <v>0.74</v>
       </c>
-      <c r="Y27" s="22">
+      <c r="Y27" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K28" s="29"/>
+      <c r="K28" s="23"/>
       <c r="L28" s="1">
         <v>0.6</v>
       </c>
@@ -33616,38 +35117,38 @@
       <c r="N28" s="8">
         <v>16</v>
       </c>
-      <c r="O28" s="22">
+      <c r="O28" s="9">
         <v>5.78</v>
       </c>
-      <c r="P28" s="22">
+      <c r="P28" s="9">
         <v>2.38</v>
       </c>
-      <c r="Q28" s="22">
+      <c r="Q28" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="R28" s="22">
+      <c r="R28" s="9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="S28" s="22">
+      <c r="S28" s="9">
         <v>0.16</v>
       </c>
-      <c r="T28" s="22">
+      <c r="T28" s="9">
         <v>0.1</v>
       </c>
-      <c r="U28" s="22">
+      <c r="U28" s="9">
         <v>0.15</v>
       </c>
-      <c r="V28" s="22">
+      <c r="V28" s="9">
         <v>0.3</v>
       </c>
-      <c r="W28" s="22">
+      <c r="W28" s="9">
         <v>0.47</v>
       </c>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K29" s="29"/>
+      <c r="K29" s="23"/>
       <c r="L29" s="1">
         <v>0.7</v>
       </c>
@@ -33657,36 +35158,36 @@
       <c r="N29" s="8">
         <v>16</v>
       </c>
-      <c r="O29" s="22">
+      <c r="O29" s="9">
         <v>5.56</v>
       </c>
-      <c r="P29" s="22">
+      <c r="P29" s="9">
         <v>2.31</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="9">
         <v>1.08</v>
       </c>
-      <c r="R29" s="22">
+      <c r="R29" s="9">
         <v>0.5</v>
       </c>
-      <c r="S29" s="22">
+      <c r="S29" s="9">
         <v>0.11</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T29" s="9">
         <v>0.05</v>
       </c>
-      <c r="U29" s="22">
+      <c r="U29" s="9">
         <v>0.1</v>
       </c>
-      <c r="V29" s="22">
+      <c r="V29" s="9">
         <v>0.2</v>
       </c>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K30" s="29"/>
+      <c r="K30" s="23"/>
       <c r="L30" s="1">
         <v>0.8</v>
       </c>
@@ -33696,31 +35197,31 @@
       <c r="N30" s="8">
         <v>16</v>
       </c>
-      <c r="O30" s="22">
+      <c r="O30" s="9">
         <v>5.56</v>
       </c>
-      <c r="P30" s="22">
+      <c r="P30" s="9">
         <v>2.25</v>
       </c>
-      <c r="Q30" s="22">
+      <c r="Q30" s="9">
         <v>1</v>
       </c>
-      <c r="R30" s="22">
+      <c r="R30" s="9">
         <v>0.44</v>
       </c>
-      <c r="S30" s="22">
+      <c r="S30" s="9">
         <v>0.06</v>
       </c>
-      <c r="T30" s="22">
+      <c r="T30" s="9">
         <v>0</v>
       </c>
-      <c r="U30" s="22">
+      <c r="U30" s="9">
         <v>0.05</v>
       </c>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -33746,7 +35247,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="23" max="24" width="9.140625" style="26"/>
+    <col min="23" max="24" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="11:24" x14ac:dyDescent="0.25">
@@ -33815,28 +35316,28 @@
       </c>
     </row>
     <row r="13" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="40" t="s">
+      <c r="M13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
     </row>
     <row r="14" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K14" s="36"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="20">
+      <c r="K14" s="31"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="16">
         <v>0.1</v>
       </c>
       <c r="N14" s="1">
@@ -33873,7 +35374,7 @@
       </c>
     </row>
     <row r="15" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K15" s="39">
+      <c r="K15" s="30">
         <v>30</v>
       </c>
       <c r="L15" s="1">
@@ -33908,7 +35409,7 @@
       </c>
     </row>
     <row r="16" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K16" s="39"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="1">
         <f t="shared" ref="L16:L23" si="1">L15+0.1</f>
         <v>0.2</v>
@@ -33942,7 +35443,7 @@
       </c>
     </row>
     <row r="17" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K17" s="39"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="1">
         <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
@@ -33976,7 +35477,7 @@
       </c>
     </row>
     <row r="18" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K18" s="39"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="1">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -34010,7 +35511,7 @@
       </c>
     </row>
     <row r="19" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K19" s="39"/>
+      <c r="K19" s="30"/>
       <c r="L19" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -34044,7 +35545,7 @@
       </c>
     </row>
     <row r="20" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K20" s="39"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="1">
         <f t="shared" si="1"/>
         <v>0.6</v>
@@ -34074,18 +35575,18 @@
       <c r="U20" s="5">
         <v>1.24</v>
       </c>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
     </row>
     <row r="21" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K21" s="39"/>
+      <c r="K21" s="30"/>
       <c r="L21" s="1">
         <f t="shared" si="1"/>
         <v>0.7</v>
@@ -34113,10 +35614,10 @@
       <c r="U21" s="5">
         <v>1.35</v>
       </c>
-      <c r="AB21" s="15"/>
+      <c r="AB21" s="13"/>
     </row>
     <row r="22" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K22" s="39"/>
+      <c r="K22" s="30"/>
       <c r="L22" s="1">
         <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
@@ -34142,10 +35643,10 @@
       <c r="U22" s="5">
         <v>1.46</v>
       </c>
-      <c r="AB22" s="15"/>
+      <c r="AB22" s="13"/>
     </row>
     <row r="23" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K23" s="39"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="1">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
@@ -34169,10 +35670,10 @@
       <c r="U23" s="5">
         <v>1.52</v>
       </c>
-      <c r="AB23" s="15"/>
+      <c r="AB23" s="13"/>
     </row>
     <row r="24" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K24" s="39">
+      <c r="K24" s="30">
         <v>45</v>
       </c>
       <c r="L24" s="1">
@@ -34205,10 +35706,10 @@
       <c r="U24" s="5">
         <v>0.91</v>
       </c>
-      <c r="AB24" s="15"/>
+      <c r="AB24" s="13"/>
     </row>
     <row r="25" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K25" s="39"/>
+      <c r="K25" s="30"/>
       <c r="L25" s="1">
         <f t="shared" ref="L25:L32" si="2">L24+0.1</f>
         <v>0.2</v>
@@ -34240,10 +35741,10 @@
       <c r="U25" s="5">
         <v>0.84</v>
       </c>
-      <c r="AB25" s="15"/>
+      <c r="AB25" s="13"/>
     </row>
     <row r="26" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K26" s="39"/>
+      <c r="K26" s="30"/>
       <c r="L26" s="1">
         <f t="shared" si="2"/>
         <v>0.30000000000000004</v>
@@ -34275,10 +35776,10 @@
       <c r="U26" s="5">
         <v>0.79</v>
       </c>
-      <c r="AB26" s="15"/>
+      <c r="AB26" s="13"/>
     </row>
     <row r="27" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K27" s="39"/>
+      <c r="K27" s="30"/>
       <c r="L27" s="1">
         <f t="shared" si="2"/>
         <v>0.4</v>
@@ -34310,10 +35811,10 @@
       <c r="U27" s="5">
         <v>0.77</v>
       </c>
-      <c r="AB27" s="15"/>
+      <c r="AB27" s="13"/>
     </row>
     <row r="28" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K28" s="39"/>
+      <c r="K28" s="30"/>
       <c r="L28" s="1">
         <f t="shared" si="2"/>
         <v>0.5</v>
@@ -34345,10 +35846,10 @@
       <c r="U28" s="5">
         <v>0.77</v>
       </c>
-      <c r="AB28" s="15"/>
+      <c r="AB28" s="13"/>
     </row>
     <row r="29" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K29" s="39"/>
+      <c r="K29" s="30"/>
       <c r="L29" s="1">
         <f t="shared" si="2"/>
         <v>0.6</v>
@@ -34378,10 +35879,10 @@
       <c r="U29" s="5">
         <v>0.79</v>
       </c>
-      <c r="AB29" s="15"/>
+      <c r="AB29" s="13"/>
     </row>
     <row r="30" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K30" s="39"/>
+      <c r="K30" s="30"/>
       <c r="L30" s="1">
         <f t="shared" si="2"/>
         <v>0.7</v>
@@ -34409,10 +35910,10 @@
       <c r="U30" s="5">
         <v>0.83</v>
       </c>
-      <c r="AB30" s="15"/>
+      <c r="AB30" s="13"/>
     </row>
     <row r="31" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K31" s="39"/>
+      <c r="K31" s="30"/>
       <c r="L31" s="1">
         <f t="shared" si="2"/>
         <v>0.79999999999999993</v>
@@ -34438,10 +35939,10 @@
       <c r="U31" s="5">
         <v>0.87</v>
       </c>
-      <c r="AB31" s="15"/>
+      <c r="AB31" s="13"/>
     </row>
     <row r="32" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K32" s="39"/>
+      <c r="K32" s="30"/>
       <c r="L32" s="1">
         <f t="shared" si="2"/>
         <v>0.89999999999999991</v>
@@ -34465,10 +35966,10 @@
       <c r="U32" s="5">
         <v>0.85</v>
       </c>
-      <c r="AB32" s="15"/>
+      <c r="AB32" s="13"/>
     </row>
     <row r="33" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K33" s="36">
+      <c r="K33" s="31">
         <v>60</v>
       </c>
       <c r="L33" s="1">
@@ -34501,10 +36002,10 @@
       <c r="U33" s="5">
         <v>1.2</v>
       </c>
-      <c r="AB33" s="15"/>
+      <c r="AB33" s="13"/>
     </row>
     <row r="34" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K34" s="37"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="1">
         <f t="shared" ref="L34:L41" si="3">L33+0.1</f>
         <v>0.2</v>
@@ -34536,10 +36037,10 @@
       <c r="U34" s="5">
         <v>1.43</v>
       </c>
-      <c r="AB34" s="15"/>
+      <c r="AB34" s="13"/>
     </row>
     <row r="35" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K35" s="37"/>
+      <c r="K35" s="33"/>
       <c r="L35" s="1">
         <f t="shared" si="3"/>
         <v>0.30000000000000004</v>
@@ -34571,10 +36072,10 @@
       <c r="U35" s="5">
         <v>1.68</v>
       </c>
-      <c r="AB35" s="15"/>
+      <c r="AB35" s="13"/>
     </row>
     <row r="36" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K36" s="37"/>
+      <c r="K36" s="33"/>
       <c r="L36" s="1">
         <f t="shared" si="3"/>
         <v>0.4</v>
@@ -34606,10 +36107,10 @@
       <c r="U36" s="5">
         <v>1.95</v>
       </c>
-      <c r="AB36" s="15"/>
+      <c r="AB36" s="13"/>
     </row>
     <row r="37" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K37" s="37"/>
+      <c r="K37" s="33"/>
       <c r="L37" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
@@ -34641,10 +36142,10 @@
       <c r="U37" s="5">
         <v>2.25</v>
       </c>
-      <c r="AB37" s="15"/>
+      <c r="AB37" s="13"/>
     </row>
     <row r="38" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K38" s="37"/>
+      <c r="K38" s="33"/>
       <c r="L38" s="1">
         <f t="shared" si="3"/>
         <v>0.6</v>
@@ -34674,10 +36175,10 @@
       <c r="U38" s="5">
         <v>2.57</v>
       </c>
-      <c r="AB38" s="15"/>
+      <c r="AB38" s="13"/>
     </row>
     <row r="39" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K39" s="37"/>
+      <c r="K39" s="33"/>
       <c r="L39" s="1">
         <f t="shared" si="3"/>
         <v>0.7</v>
@@ -34705,10 +36206,10 @@
       <c r="U39" s="5">
         <v>2.9</v>
       </c>
-      <c r="AB39" s="15"/>
+      <c r="AB39" s="13"/>
     </row>
     <row r="40" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K40" s="37"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="1">
         <f t="shared" si="3"/>
         <v>0.79999999999999993</v>
@@ -34734,10 +36235,10 @@
       <c r="U40" s="5">
         <v>3.23</v>
       </c>
-      <c r="AB40" s="15"/>
+      <c r="AB40" s="13"/>
     </row>
     <row r="41" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K41" s="38"/>
+      <c r="K41" s="34"/>
       <c r="L41" s="1">
         <f t="shared" si="3"/>
         <v>0.89999999999999991</v>
@@ -34761,18 +36262,18 @@
       <c r="U41" s="5">
         <v>3.51</v>
       </c>
-      <c r="Y41" s="27"/>
-      <c r="AB41" s="15"/>
+      <c r="Y41" s="21"/>
+      <c r="AB41" s="13"/>
     </row>
     <row r="42" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="Y42" s="27"/>
-      <c r="AB42" s="15"/>
+      <c r="Y42" s="21"/>
+      <c r="AB42" s="13"/>
     </row>
     <row r="43" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="AB43" s="15"/>
+      <c r="AB43" s="13"/>
     </row>
     <row r="44" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="AB44" s="15"/>
+      <c r="AB44" s="13"/>
     </row>
     <row r="45" spans="11:28" x14ac:dyDescent="0.25">
       <c r="O45" s="7" t="s">
@@ -34781,7 +36282,7 @@
       <c r="Q45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB45" s="15"/>
+      <c r="AB45" s="13"/>
     </row>
     <row r="46" spans="11:28" x14ac:dyDescent="0.25">
       <c r="O46" s="7" t="s">
@@ -34790,33 +36291,33 @@
       <c r="Q46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB46" s="15"/>
+      <c r="AB46" s="13"/>
     </row>
     <row r="47" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K47" s="29" t="s">
+      <c r="K47" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="L47" s="29" t="s">
+      <c r="L47" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M47" s="30" t="s">
+      <c r="M47" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="Y47" s="27"/>
-      <c r="AB47" s="15"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="Y47" s="21"/>
+      <c r="AB47" s="13"/>
     </row>
     <row r="48" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K48" s="34"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="20">
+      <c r="K48" s="28"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="16">
         <v>0.1</v>
       </c>
       <c r="N48" s="1">
@@ -34851,11 +36352,11 @@
         <f t="shared" si="4"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="Y48" s="27"/>
-      <c r="AB48" s="15"/>
+      <c r="Y48" s="21"/>
+      <c r="AB48" s="13"/>
     </row>
     <row r="49" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K49" s="29">
+      <c r="K49" s="23">
         <v>30</v>
       </c>
       <c r="L49" s="1">
@@ -34888,11 +36389,11 @@
       <c r="U49" s="5">
         <v>0.83</v>
       </c>
-      <c r="V49" s="15"/>
-      <c r="AB49" s="15"/>
+      <c r="V49" s="13"/>
+      <c r="AB49" s="13"/>
     </row>
     <row r="50" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K50" s="29"/>
+      <c r="K50" s="23"/>
       <c r="L50" s="1">
         <f t="shared" ref="L50:L57" si="5">L49+0.1</f>
         <v>0.2</v>
@@ -34924,10 +36425,10 @@
       <c r="U50" s="5">
         <v>0.69</v>
       </c>
-      <c r="AB50" s="15"/>
+      <c r="AB50" s="13"/>
     </row>
     <row r="51" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K51" s="29"/>
+      <c r="K51" s="23"/>
       <c r="L51" s="1">
         <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
@@ -34959,10 +36460,10 @@
       <c r="U51" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AB51" s="15"/>
+      <c r="AB51" s="13"/>
     </row>
     <row r="52" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K52" s="29"/>
+      <c r="K52" s="23"/>
       <c r="L52" s="1">
         <f t="shared" si="5"/>
         <v>0.4</v>
@@ -34994,10 +36495,10 @@
       <c r="U52" s="5">
         <v>0.49</v>
       </c>
-      <c r="AB52" s="15"/>
+      <c r="AB52" s="13"/>
     </row>
     <row r="53" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K53" s="29"/>
+      <c r="K53" s="23"/>
       <c r="L53" s="1">
         <f t="shared" si="5"/>
         <v>0.5</v>
@@ -35029,10 +36530,10 @@
       <c r="U53" s="5">
         <v>0.41</v>
       </c>
-      <c r="AB53" s="15"/>
+      <c r="AB53" s="13"/>
     </row>
     <row r="54" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K54" s="29"/>
+      <c r="K54" s="23"/>
       <c r="L54" s="1">
         <f t="shared" si="5"/>
         <v>0.6</v>
@@ -35064,10 +36565,10 @@
       <c r="U54" s="5">
         <v>0.33</v>
       </c>
-      <c r="AB54" s="15"/>
+      <c r="AB54" s="13"/>
     </row>
     <row r="55" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K55" s="29"/>
+      <c r="K55" s="23"/>
       <c r="L55" s="1">
         <f t="shared" si="5"/>
         <v>0.7</v>
@@ -35097,10 +36598,10 @@
       <c r="U55" s="5">
         <v>0.27</v>
       </c>
-      <c r="AB55" s="15"/>
+      <c r="AB55" s="13"/>
     </row>
     <row r="56" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K56" s="29"/>
+      <c r="K56" s="23"/>
       <c r="L56" s="1">
         <f t="shared" si="5"/>
         <v>0.79999999999999993</v>
@@ -35128,10 +36629,10 @@
       <c r="U56" s="5">
         <v>0.22</v>
       </c>
-      <c r="AB56" s="15"/>
+      <c r="AB56" s="13"/>
     </row>
     <row r="57" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K57" s="29"/>
+      <c r="K57" s="23"/>
       <c r="L57" s="1">
         <f t="shared" si="5"/>
         <v>0.89999999999999991</v>
@@ -35157,10 +36658,10 @@
       <c r="U57" s="5">
         <v>0.18</v>
       </c>
-      <c r="AB57" s="15"/>
+      <c r="AB57" s="13"/>
     </row>
     <row r="58" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K58" s="29">
+      <c r="K58" s="23">
         <v>45</v>
       </c>
       <c r="L58" s="1">
@@ -35193,10 +36694,10 @@
       <c r="U58" s="5">
         <v>0.83</v>
       </c>
-      <c r="AB58" s="15"/>
+      <c r="AB58" s="13"/>
     </row>
     <row r="59" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K59" s="29"/>
+      <c r="K59" s="23"/>
       <c r="L59" s="1">
         <f t="shared" ref="L59:L66" si="6">L58+0.1</f>
         <v>0.2</v>
@@ -35228,10 +36729,10 @@
       <c r="U59" s="5">
         <v>0.69</v>
       </c>
-      <c r="AB59" s="15"/>
+      <c r="AB59" s="13"/>
     </row>
     <row r="60" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K60" s="29"/>
+      <c r="K60" s="23"/>
       <c r="L60" s="1">
         <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
@@ -35263,10 +36764,10 @@
       <c r="U60" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AB60" s="15"/>
+      <c r="AB60" s="13"/>
     </row>
     <row r="61" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K61" s="29"/>
+      <c r="K61" s="23"/>
       <c r="L61" s="1">
         <f t="shared" si="6"/>
         <v>0.4</v>
@@ -35298,10 +36799,10 @@
       <c r="U61" s="5">
         <v>0.49</v>
       </c>
-      <c r="AB61" s="15"/>
+      <c r="AB61" s="13"/>
     </row>
     <row r="62" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K62" s="29"/>
+      <c r="K62" s="23"/>
       <c r="L62" s="1">
         <f t="shared" si="6"/>
         <v>0.5</v>
@@ -35333,10 +36834,10 @@
       <c r="U62" s="5">
         <v>0.4</v>
       </c>
-      <c r="AB62" s="15"/>
+      <c r="AB62" s="13"/>
     </row>
     <row r="63" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K63" s="29"/>
+      <c r="K63" s="23"/>
       <c r="L63" s="1">
         <f t="shared" si="6"/>
         <v>0.6</v>
@@ -35368,10 +36869,10 @@
       <c r="U63" s="5">
         <v>0.32</v>
       </c>
-      <c r="AB63" s="15"/>
+      <c r="AB63" s="13"/>
     </row>
     <row r="64" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K64" s="29"/>
+      <c r="K64" s="23"/>
       <c r="L64" s="1">
         <f t="shared" si="6"/>
         <v>0.7</v>
@@ -35401,10 +36902,10 @@
       <c r="U64" s="5">
         <v>0.25</v>
       </c>
-      <c r="AB64" s="15"/>
+      <c r="AB64" s="13"/>
     </row>
     <row r="65" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K65" s="29"/>
+      <c r="K65" s="23"/>
       <c r="L65" s="1">
         <f t="shared" si="6"/>
         <v>0.79999999999999993</v>
@@ -35432,10 +36933,10 @@
       <c r="U65" s="5">
         <v>0.19</v>
       </c>
-      <c r="AB65" s="15"/>
+      <c r="AB65" s="13"/>
     </row>
     <row r="66" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K66" s="29"/>
+      <c r="K66" s="23"/>
       <c r="L66" s="1">
         <f t="shared" si="6"/>
         <v>0.89999999999999991</v>
@@ -35463,7 +36964,7 @@
       </c>
     </row>
     <row r="67" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K67" s="29">
+      <c r="K67" s="23">
         <v>60</v>
       </c>
       <c r="L67" s="1">
@@ -35498,7 +36999,7 @@
       </c>
     </row>
     <row r="68" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K68" s="29"/>
+      <c r="K68" s="23"/>
       <c r="L68" s="1">
         <f t="shared" ref="L68:L75" si="7">L67+0.1</f>
         <v>0.2</v>
@@ -35532,7 +37033,7 @@
       </c>
     </row>
     <row r="69" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K69" s="29"/>
+      <c r="K69" s="23"/>
       <c r="L69" s="1">
         <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
@@ -35566,7 +37067,7 @@
       </c>
     </row>
     <row r="70" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K70" s="29"/>
+      <c r="K70" s="23"/>
       <c r="L70" s="1">
         <f t="shared" si="7"/>
         <v>0.4</v>
@@ -35600,7 +37101,7 @@
       </c>
     </row>
     <row r="71" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K71" s="29"/>
+      <c r="K71" s="23"/>
       <c r="L71" s="1">
         <f t="shared" si="7"/>
         <v>0.5</v>
@@ -35634,7 +37135,7 @@
       </c>
     </row>
     <row r="72" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K72" s="29"/>
+      <c r="K72" s="23"/>
       <c r="L72" s="1">
         <f t="shared" si="7"/>
         <v>0.6</v>
@@ -35666,7 +37167,7 @@
       </c>
     </row>
     <row r="73" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K73" s="29"/>
+      <c r="K73" s="23"/>
       <c r="L73" s="1">
         <f t="shared" si="7"/>
         <v>0.7</v>
@@ -35696,7 +37197,7 @@
       </c>
     </row>
     <row r="74" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K74" s="29"/>
+      <c r="K74" s="23"/>
       <c r="L74" s="1">
         <f t="shared" si="7"/>
         <v>0.79999999999999993</v>
@@ -35724,7 +37225,7 @@
       </c>
     </row>
     <row r="75" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K75" s="29"/>
+      <c r="K75" s="23"/>
       <c r="L75" s="1">
         <f t="shared" si="7"/>
         <v>0.89999999999999991</v>
@@ -35751,11 +37252,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="K15:K23"/>
-    <mergeCell ref="K24:K32"/>
     <mergeCell ref="K67:K75"/>
     <mergeCell ref="K33:K41"/>
     <mergeCell ref="K47:K48"/>
@@ -35763,6 +37259,11 @@
     <mergeCell ref="M47:U47"/>
     <mergeCell ref="K49:K57"/>
     <mergeCell ref="K58:K66"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="K15:K23"/>
+    <mergeCell ref="K24:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35771,15 +37272,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="K10:U19"/>
+  <dimension ref="K10:V19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K10" s="7" t="s">
         <v>35</v>
       </c>
@@ -35787,7 +37288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
@@ -35795,25 +37296,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="11:21" x14ac:dyDescent="0.25">
-      <c r="K12" s="29" t="s">
+    <row r="12" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K12" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
     </row>
-    <row r="13" spans="11:21" x14ac:dyDescent="0.25">
-      <c r="K13" s="29"/>
+    <row r="13" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K13" s="23"/>
       <c r="L13" s="1">
         <v>20</v>
       </c>
@@ -35844,8 +37345,12 @@
       <c r="U13" s="1">
         <v>180</v>
       </c>
+      <c r="V13" t="str">
+        <f>", "</f>
+        <v xml:space="preserve">, </v>
+      </c>
     </row>
-    <row r="14" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K14" s="2">
         <v>0.5</v>
       </c>
@@ -35879,8 +37384,12 @@
       <c r="U14" s="9">
         <v>0.99</v>
       </c>
+      <c r="V14" t="str">
+        <f>L14&amp;V$13&amp;M14&amp;V$13&amp;N14&amp;V$13&amp;O14&amp;V$13&amp;P14&amp;V$13&amp;Q14&amp;V$13&amp;R14&amp;V$13&amp;S14&amp;V$13&amp;T14&amp;V$13&amp;U14</f>
+        <v>0.22, 0.32, 0.43, 0.55, 0.64, 0.71, 0.8, 0.85, 0.91, 0.99</v>
+      </c>
     </row>
-    <row r="15" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K15" s="2">
         <v>0.75</v>
       </c>
@@ -35914,8 +37423,12 @@
       <c r="U15" s="9">
         <v>0.46</v>
       </c>
+      <c r="V15" t="str">
+        <f t="shared" ref="V15:V19" si="0">L15&amp;V$13&amp;M15&amp;V$13&amp;N15&amp;V$13&amp;O15&amp;V$13&amp;P15&amp;V$13&amp;Q15&amp;V$13&amp;R15&amp;V$13&amp;S15&amp;V$13&amp;T15&amp;V$13&amp;U15</f>
+        <v>0.1, 0.15, 0.2, 0.26, 0.3, 0.33, 0.37, 0.4, 0.42, 0.46</v>
+      </c>
     </row>
-    <row r="16" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K16" s="2">
         <v>1</v>
       </c>
@@ -35949,8 +37462,12 @@
       <c r="U16" s="9">
         <v>0.31</v>
       </c>
+      <c r="V16" t="str">
+        <f t="shared" si="0"/>
+        <v>0.07, 0.1, 0.13, 0.17, 0.2, 0.22, 0.25, 0.26, 0.28, 0.31</v>
+      </c>
     </row>
-    <row r="17" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K17" s="2">
         <v>1.5</v>
       </c>
@@ -35984,8 +37501,12 @@
       <c r="U17" s="9">
         <v>0.21</v>
       </c>
+      <c r="V17" t="str">
+        <f t="shared" si="0"/>
+        <v>0.05, 0.07, 0.09, 0.12, 0.14, 0.15, 0.17, 0.18, 0.19, 0.21</v>
+      </c>
     </row>
-    <row r="18" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K18" s="2">
         <v>2</v>
       </c>
@@ -36019,8 +37540,12 @@
       <c r="U18" s="9">
         <v>0.18</v>
       </c>
+      <c r="V18" t="str">
+        <f t="shared" si="0"/>
+        <v>0.04, 0.06, 0.08, 0.1, 0.12, 0.13, 0.15, 0.16, 0.17, 0.18</v>
+      </c>
     </row>
-    <row r="19" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K19" s="2">
         <v>2.5</v>
       </c>
@@ -36053,6 +37578,10 @@
       </c>
       <c r="U19" s="9">
         <v>0.17</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="0"/>
+        <v>0.04, 0.05, 0.07, 0.09, 0.11, 0.12, 0.14, 0.14, 0.15, 0.17</v>
       </c>
     </row>
   </sheetData>
@@ -36276,64 +37805,64 @@
       </c>
     </row>
     <row r="16" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="40" t="s">
+      <c r="L16" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="K17" s="39"/>
-      <c r="L17" s="21">
+      <c r="K17" s="30"/>
+      <c r="L17" s="15">
         <v>0.1</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="15">
         <v>0.2</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="15">
         <v>0.3</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="15">
         <v>0.4</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="15">
         <v>0.5</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="15">
         <v>0.6</v>
       </c>
-      <c r="R17" s="21">
+      <c r="R17" s="15">
         <v>0.8</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="15">
         <v>1</v>
       </c>
-      <c r="T17" s="21">
+      <c r="T17" s="15">
         <v>1.2</v>
       </c>
-      <c r="U17" s="21">
+      <c r="U17" s="15">
         <v>1.4</v>
       </c>
-      <c r="V17" s="21">
+      <c r="V17" s="15">
         <v>1.6</v>
       </c>
-      <c r="W17" s="21">
+      <c r="W17" s="15">
         <v>1.8</v>
       </c>
-      <c r="X17" s="21">
+      <c r="X17" s="15">
         <v>2</v>
       </c>
     </row>
@@ -36645,25 +38174,25 @@
       </c>
     </row>
     <row r="13" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
     </row>
     <row r="14" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L14" s="29"/>
-      <c r="M14" s="20">
+      <c r="L14" s="23"/>
+      <c r="M14" s="16">
         <v>0.1</v>
       </c>
       <c r="N14" s="1">
@@ -36886,29 +38415,29 @@
       </c>
     </row>
     <row r="14" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
     </row>
     <row r="15" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="2">
         <v>0.25</v>
       </c>
@@ -36944,7 +38473,7 @@
       </c>
     </row>
     <row r="16" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K16" s="29">
+      <c r="K16" s="23">
         <v>30</v>
       </c>
       <c r="L16" s="2">
@@ -36985,7 +38514,7 @@
       </c>
     </row>
     <row r="17" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K17" s="29"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="2">
         <v>0.75</v>
       </c>
@@ -37024,7 +38553,7 @@
       </c>
     </row>
     <row r="18" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K18" s="29"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="2">
         <v>1</v>
       </c>
@@ -37063,7 +38592,7 @@
       </c>
     </row>
     <row r="19" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K19" s="29"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="2">
         <v>1.5</v>
       </c>
@@ -37102,7 +38631,7 @@
       </c>
     </row>
     <row r="20" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K20" s="29"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="2">
         <v>2</v>
       </c>
@@ -37141,7 +38670,7 @@
       </c>
     </row>
     <row r="21" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K21" s="29">
+      <c r="K21" s="23">
         <v>45</v>
       </c>
       <c r="L21" s="2">
@@ -37182,7 +38711,7 @@
       </c>
     </row>
     <row r="22" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K22" s="29"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="2">
         <v>0.75</v>
       </c>
@@ -37221,7 +38750,7 @@
       </c>
     </row>
     <row r="23" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K23" s="29"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="2">
         <v>1</v>
       </c>
@@ -37260,7 +38789,7 @@
       </c>
     </row>
     <row r="24" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K24" s="29"/>
+      <c r="K24" s="23"/>
       <c r="L24" s="2">
         <v>1.5</v>
       </c>
@@ -37299,7 +38828,7 @@
       </c>
     </row>
     <row r="25" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K25" s="29"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="2">
         <v>2</v>
       </c>
@@ -37338,7 +38867,7 @@
       </c>
     </row>
     <row r="26" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K26" s="29">
+      <c r="K26" s="23">
         <v>60</v>
       </c>
       <c r="L26" s="2">
@@ -37379,7 +38908,7 @@
       </c>
     </row>
     <row r="27" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K27" s="29"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="2">
         <v>0.75</v>
       </c>
@@ -37418,7 +38947,7 @@
       </c>
     </row>
     <row r="28" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K28" s="29"/>
+      <c r="K28" s="23"/>
       <c r="L28" s="2">
         <v>1</v>
       </c>
@@ -37457,7 +38986,7 @@
       </c>
     </row>
     <row r="29" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K29" s="29"/>
+      <c r="K29" s="23"/>
       <c r="L29" s="2">
         <v>1.5</v>
       </c>
@@ -37496,7 +39025,7 @@
       </c>
     </row>
     <row r="30" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K30" s="29"/>
+      <c r="K30" s="23"/>
       <c r="L30" s="2">
         <v>2</v>
       </c>
@@ -37535,7 +39064,7 @@
       </c>
     </row>
     <row r="31" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K31" s="29">
+      <c r="K31" s="23">
         <v>90</v>
       </c>
       <c r="L31" s="2">
@@ -37576,7 +39105,7 @@
       </c>
     </row>
     <row r="32" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K32" s="29"/>
+      <c r="K32" s="23"/>
       <c r="L32" s="2">
         <v>0.75</v>
       </c>
@@ -37615,7 +39144,7 @@
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K33" s="29"/>
+      <c r="K33" s="23"/>
       <c r="L33" s="2">
         <v>1</v>
       </c>
@@ -37654,7 +39183,7 @@
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K34" s="29"/>
+      <c r="K34" s="23"/>
       <c r="L34" s="2">
         <v>1.5</v>
       </c>
@@ -37693,7 +39222,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K35" s="29"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="2">
         <v>2</v>
       </c>
@@ -37799,25 +39328,25 @@
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="O17" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N18" s="29"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="3">
         <v>0.25</v>
       </c>
@@ -38150,23 +39679,23 @@
       </c>
     </row>
     <row r="15" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M15" s="34" t="s">
+      <c r="M15" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="33"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="27"/>
     </row>
     <row r="16" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M16" s="35"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="3">
         <v>200</v>
       </c>
@@ -38384,7 +39913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640C0547-DE6B-4D0F-BCEC-48888FBC7E18}">
   <dimension ref="B8:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -38572,24 +40101,24 @@
       </c>
     </row>
     <row r="14" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="33"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="27"/>
     </row>
     <row r="15" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L15" s="35"/>
+      <c r="L15" s="29"/>
       <c r="M15" s="3">
         <v>10</v>
       </c>
@@ -38999,24 +40528,24 @@
       </c>
     </row>
     <row r="13" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
     </row>
     <row r="14" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J14" s="29"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="1">
         <v>10</v>
       </c>
